--- a/ref/ingestion/calibrated/panama/model_input_variables_panama_ce_calibrated.xlsx
+++ b/ref/ingestion/calibrated/panama/model_input_variables_panama_ce_calibrated.xlsx
@@ -609,10 +609,10 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0.3</v>
@@ -740,10 +740,10 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0.195</v>
@@ -5063,10 +5063,10 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>0.31</v>
@@ -5456,10 +5456,10 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
         <v>0.6</v>
@@ -5587,10 +5587,10 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
         <v>0.25</v>
@@ -5718,10 +5718,10 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
         <v>0.045</v>
@@ -5849,10 +5849,10 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
         <v>0.05</v>
@@ -5980,10 +5980,10 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
         <v>0.025</v>
@@ -6111,10 +6111,10 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>2.17</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0.37</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
         <v>1000</v>
@@ -6504,10 +6504,10 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
         <v>49</v>
@@ -6635,10 +6635,10 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
         <v>49</v>
@@ -6766,10 +6766,10 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
         <v>1000000</v>
@@ -6897,10 +6897,10 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
         <v>0.0014</v>
@@ -7028,10 +7028,10 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
         <v>0.0014</v>
@@ -7159,10 +7159,10 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
         <v>0.0014</v>
@@ -7290,10 +7290,10 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
         <v>0.007</v>
@@ -7421,10 +7421,10 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
         <v>0.007</v>
@@ -7552,10 +7552,10 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
         <v>0.007</v>
@@ -7683,10 +7683,10 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
         <v>0.0004199999999999</v>
@@ -7814,10 +7814,10 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
         <v>0.0004199999999999</v>
@@ -7945,10 +7945,10 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
         <v>0.0004199999999999</v>
@@ -8076,10 +8076,10 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
         <v>0.001</v>
@@ -8207,10 +8207,10 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
         <v>0.001</v>
@@ -8338,10 +8338,10 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
         <v>0.0001</v>
@@ -8469,10 +8469,10 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
         <v>8.670000000000001e-05</v>
@@ -8600,10 +8600,10 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
         <v>8.670000000000001e-05</v>
@@ -8731,10 +8731,10 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
         <v>8.670000000000001e-05</v>
@@ -8862,10 +8862,10 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
         <v>8.670000000000001e-05</v>
@@ -8993,10 +8993,10 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
         <v>8.670000000000001e-05</v>
@@ -9124,10 +9124,10 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
         <v>1e-05</v>
@@ -9255,10 +9255,10 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
         <v>0.00017</v>
@@ -9386,10 +9386,10 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
         <v>8.670000000000001e-05</v>
@@ -9517,10 +9517,10 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
         <v>0.000945</v>
@@ -9648,10 +9648,10 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
         <v>8.670000000000001e-05</v>
@@ -9779,10 +9779,10 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
         <v>1e-05</v>
@@ -9910,10 +9910,10 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
         <v>8.670000000000001e-05</v>
@@ -10172,10 +10172,10 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>16.66666666666667</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
         <v>0.06</v>
@@ -10303,10 +10303,10 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
-        <v>6.666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
         <v>0.15</v>
@@ -10434,10 +10434,10 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
-        <v>6.666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
         <v>0.15</v>
@@ -10565,10 +10565,10 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>33.33333333333334</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
         <v>0.03</v>
@@ -10696,10 +10696,10 @@
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>33.33333333333334</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
         <v>0.03</v>
@@ -10827,10 +10827,10 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>4.166666666666667</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
         <v>0.24</v>
@@ -10958,10 +10958,10 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>6.666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
         <v>0.15</v>
@@ -11089,10 +11089,10 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
-        <v>6.666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
         <v>0.15</v>
@@ -11351,10 +11351,10 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
-        <v>33.33333333333334</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
         <v>0.03</v>
@@ -11482,10 +11482,10 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
-        <v>16.66666666666667</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
         <v>0.06</v>
@@ -11613,10 +11613,10 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>16.66666666666667</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
         <v>0.06</v>
@@ -13971,10 +13971,10 @@
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
         <v>0.0180560320738391</v>
@@ -19604,10 +19604,10 @@
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="n">
-        <v>1.052631578947368</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
-        <v>0.9473684210526316</v>
+        <v>1</v>
       </c>
       <c r="J147" t="n">
         <v>0.95</v>
@@ -19735,10 +19735,10 @@
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="n">
-        <v>1.052631578947368</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
-        <v>0.9473684210526316</v>
+        <v>1</v>
       </c>
       <c r="J148" t="n">
         <v>0.95</v>
@@ -19866,10 +19866,10 @@
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J149" t="n">
         <v>0.03</v>
@@ -19997,10 +19997,10 @@
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="n">
-        <v>1.66</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="J150" t="n">
         <v>0.66</v>
@@ -20128,10 +20128,10 @@
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="n">
-        <v>1.66</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="J151" t="n">
         <v>0.5</v>
@@ -20259,10 +20259,10 @@
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="n">
         <v>0.01</v>
@@ -20390,10 +20390,10 @@
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="J153" t="n">
         <v>0.094</v>
@@ -20521,10 +20521,10 @@
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="n">
-        <v>1.48</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
-        <v>0.53</v>
+        <v>1</v>
       </c>
       <c r="J154" t="n">
         <v>0.183</v>
@@ -20914,10 +20914,10 @@
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="n">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="J157" t="n">
         <v>0.096</v>
@@ -21176,10 +21176,10 @@
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="n">
-        <v>1.23</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="J159" t="n">
         <v>0.054</v>
@@ -21569,10 +21569,10 @@
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="n">
-        <v>1.48</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
-        <v>0.53</v>
+        <v>1</v>
       </c>
       <c r="J162" t="n">
         <v>0.183</v>
@@ -21700,10 +21700,10 @@
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="n">
-        <v>1.23</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="J163" t="n">
         <v>0.054</v>
@@ -21831,10 +21831,10 @@
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="n">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="J164" t="n">
         <v>0.028</v>
@@ -21962,10 +21962,10 @@
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="n">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="J165" t="n">
         <v>0.096</v>
@@ -22617,10 +22617,10 @@
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="n">
-        <v>2.8125</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J170" t="n">
         <v>0.016</v>
@@ -22748,10 +22748,10 @@
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="n">
         <v>0.0005</v>
@@ -22879,10 +22879,10 @@
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="n">
         <v>0.0005</v>
@@ -23010,10 +23010,10 @@
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="n">
         <v>0.0005</v>
@@ -23141,10 +23141,10 @@
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="n">
-        <v>2.8125</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J174" t="n">
         <v>0.016</v>
@@ -23272,10 +23272,10 @@
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
-        <v>2.8125</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J175" t="n">
         <v>0.016</v>
@@ -23403,10 +23403,10 @@
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="n">
         <v>0.0005</v>
@@ -23537,7 +23537,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="n">
         <v>0.0025</v>
@@ -23665,10 +23665,10 @@
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="n">
-        <v>7.58</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
-        <v>0.042</v>
+        <v>1</v>
       </c>
       <c r="J178" t="n">
         <v>0.012</v>
@@ -23796,10 +23796,10 @@
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="n">
-        <v>7.58</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
-        <v>0.042</v>
+        <v>1</v>
       </c>
       <c r="J179" t="n">
         <v>0.012</v>
@@ -23927,10 +23927,10 @@
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="J180" t="n">
         <v>0.5</v>
@@ -24058,10 +24058,10 @@
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="n">
-        <v>1.0625</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
-        <v>0.5625</v>
+        <v>1</v>
       </c>
       <c r="J181" t="n">
         <v>0.8</v>
@@ -24189,10 +24189,10 @@
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="n">
-        <v>1.0625</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
-        <v>0.5625</v>
+        <v>1</v>
       </c>
       <c r="J182" t="n">
         <v>0.8</v>
@@ -24320,10 +24320,10 @@
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="n">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
-        <v>0.583</v>
+        <v>1</v>
       </c>
       <c r="J183" t="n">
         <v>0.12</v>
@@ -24451,10 +24451,10 @@
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="n">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
-        <v>0.583</v>
+        <v>1</v>
       </c>
       <c r="J184" t="n">
         <v>0.12</v>
@@ -24582,10 +24582,10 @@
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J185" t="n">
         <v>0.1</v>
@@ -24713,10 +24713,10 @@
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="n">
-        <v>1.375</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="J186" t="n">
         <v>0.4</v>
@@ -24844,10 +24844,10 @@
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="n">
-        <v>1.375</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="J187" t="n">
         <v>0.4</v>
@@ -24975,10 +24975,10 @@
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="n">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="J188" t="n">
         <v>0.15</v>
@@ -25368,10 +25368,10 @@
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="n">
-        <v>1.333</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
-        <v>0.833</v>
+        <v>1</v>
       </c>
       <c r="J191" t="n">
         <v>0.605</v>
@@ -25499,10 +25499,10 @@
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="n">
-        <v>1.333</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
-        <v>0.833</v>
+        <v>1</v>
       </c>
       <c r="J192" t="n">
         <v>0.605</v>
@@ -25633,7 +25633,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J193" t="n">
         <v>0.098</v>
@@ -25764,7 +25764,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J194" t="n">
         <v>0.098</v>
@@ -25895,7 +25895,7 @@
         <v>1</v>
       </c>
       <c r="I195" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J195" t="n">
         <v>0.35</v>
@@ -26026,7 +26026,7 @@
         <v>1</v>
       </c>
       <c r="I196" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J196" t="n">
         <v>0.35</v>
@@ -26157,7 +26157,7 @@
         <v>1</v>
       </c>
       <c r="I197" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J197" t="n">
         <v>0.35</v>
@@ -26288,7 +26288,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J198" t="n">
         <v>0.098</v>
@@ -26678,10 +26678,10 @@
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="n">
-        <v>1.056</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
-        <v>0.889</v>
+        <v>1</v>
       </c>
       <c r="J201" t="n">
         <v>0.9</v>
@@ -26809,10 +26809,10 @@
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr"/>
       <c r="H202" t="n">
-        <v>1.056</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
-        <v>0.889</v>
+        <v>1</v>
       </c>
       <c r="J202" t="n">
         <v>0.9</v>
@@ -26940,10 +26940,10 @@
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr"/>
       <c r="H203" t="n">
-        <v>2.326</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
-        <v>0.117</v>
+        <v>1</v>
       </c>
       <c r="J203" t="n">
         <v>0.6</v>
@@ -27071,10 +27071,10 @@
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr"/>
       <c r="H204" t="n">
-        <v>2.326</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
-        <v>0.117</v>
+        <v>1</v>
       </c>
       <c r="J204" t="n">
         <v>0.1</v>
@@ -27202,10 +27202,10 @@
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="J205" t="n">
         <v>0.4</v>
@@ -27333,10 +27333,10 @@
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="n">
-        <v>1.059</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
-        <v>0.9409999999999999</v>
+        <v>1</v>
       </c>
       <c r="J206" t="n">
         <v>0.85</v>
@@ -27464,10 +27464,10 @@
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="n">
-        <v>1.059</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
-        <v>0.9409999999999999</v>
+        <v>1</v>
       </c>
       <c r="J207" t="n">
         <v>0.85</v>
@@ -27595,10 +27595,10 @@
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr"/>
       <c r="H208" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J208" t="n">
         <v>0.625</v>
@@ -27726,10 +27726,10 @@
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J209" t="n">
         <v>0</v>
@@ -27857,10 +27857,10 @@
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J210" t="n">
         <v>0</v>
@@ -28512,10 +28512,10 @@
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J215" t="n">
         <v>0.03</v>
@@ -28643,10 +28643,10 @@
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr"/>
       <c r="H216" t="n">
-        <v>1.667</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
-        <v>0.333</v>
+        <v>1</v>
       </c>
       <c r="J216" t="n">
         <v>0.6</v>
@@ -28774,10 +28774,10 @@
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="n">
-        <v>2.86</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="J217" t="n">
         <v>0.6</v>
@@ -28905,10 +28905,10 @@
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr"/>
       <c r="H218" t="n">
-        <v>2.86</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="J218" t="n">
         <v>0.1</v>
@@ -29036,10 +29036,10 @@
       <c r="F219" t="inlineStr"/>
       <c r="G219" t="inlineStr"/>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J219" t="n">
         <v>0.03</v>
@@ -29167,10 +29167,10 @@
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J220" t="n">
         <v>0.03</v>
@@ -29298,10 +29298,10 @@
       <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr"/>
       <c r="H221" t="n">
-        <v>1.667</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
-        <v>0.333</v>
+        <v>1</v>
       </c>
       <c r="J221" t="n">
         <v>0.6</v>
@@ -29429,10 +29429,10 @@
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="n">
-        <v>1.44</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J222" t="n">
         <v>0.5</v>
@@ -29560,10 +29560,10 @@
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="inlineStr"/>
       <c r="H223" t="n">
-        <v>2.67</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" t="n">
         <v>0.3</v>
@@ -29691,10 +29691,10 @@
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J224" t="n">
         <v>0.25</v>
@@ -29822,10 +29822,10 @@
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="inlineStr"/>
       <c r="H225" t="n">
-        <v>1.39</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
-        <v>0.46</v>
+        <v>1</v>
       </c>
       <c r="J225" t="n">
         <v>0.865</v>
@@ -29953,10 +29953,10 @@
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="n">
-        <v>1.39</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
-        <v>0.46</v>
+        <v>1</v>
       </c>
       <c r="J226" t="n">
         <v>0.865</v>

--- a/ref/ingestion/calibrated/panama/model_input_variables_panama_ce_calibrated.xlsx
+++ b/ref/ingestion/calibrated/panama/model_input_variables_panama_ce_calibrated.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="strategy_id-5001" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="strategy_id-5004" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="strategy_id-5006" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="strategy_id-5008" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="strategy_id-5007" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="strategy_id-5009" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -40722,4 +40723,5156 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AS39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>subsector</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>normalize_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>trajgroup_no_vary_q</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>uniform_scaling_q</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>variable_trajectory_group</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>variable_trajectory_group_trajectory_type</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>max_35</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>min_35</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Liquid Waste</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>frac_wali_ww_domestic_rural_treatment_path_septic</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Liquid Waste</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>frac_wali_ww_domestic_rural_treatment_path_untreated_no_sewerage</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.754184025160238</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.754184025160238</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.754184025160238</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.754184025160238</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.754184025160238</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.754184025160238</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.754184025160238</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.754184025160238</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.754184025160238</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.754184025160238</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.754184025160238</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.7240166641538284</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.693849303147419</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.6636819421410094</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.6335145811345999</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.6033472201281904</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.5731798591217808</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.5430124981153713</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.5128451371089617</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.4826777761025523</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.4525104150961428</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.4223430540897333</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.3921756930833238</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.3620083320769142</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.3318409710705046</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.3016736100640952</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.2715062490576857</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.2413388880512761</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.2111715270448667</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.1810041660384571</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.1508368050320475</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.1206694440256381</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.09050208301922855</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.06033472201281901</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.03016736100640955</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Liquid Waste</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>frac_wali_ww_domestic_rural_treatment_path_untreated_with_sewerage</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.245815974839762</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.245815974839762</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.245815974839762</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.245815974839762</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.245815974839762</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.245815974839762</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.245815974839762</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.245815974839762</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.245815974839762</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.245815974839762</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.245815974839762</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.2359833358461715</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.226150696852581</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.2163180578589906</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.2064854188654001</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.1966527798718096</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.1868201408782191</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.1769875018846286</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.1671548628910381</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.1573222238974477</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.1474895849038572</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.1376569459102667</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.1278243069166762</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.1179916679230858</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.1081590289294953</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.09832638993590481</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.08849375094231432</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.07866111194872383</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.06882847295513336</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.05899583396154288</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.04916319496795239</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.03933055597436193</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.02949791698077144</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.01966527798718095</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.009832638993590489</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Liquid Waste</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>frac_wali_ww_domestic_urban_treatment_path_advanced_aerobic</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Liquid Waste</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>frac_wali_ww_domestic_urban_treatment_path_advanced_anaerobic</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Liquid Waste</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>frac_wali_ww_domestic_urban_treatment_path_secondary_aerobic</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.04000000000000001</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.05600000000000001</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.08000000000000002</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.08800000000000001</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Liquid Waste</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>frac_wali_ww_domestic_urban_treatment_path_secondary_anaerobic</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.04000000000000001</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.05600000000000001</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.08000000000000002</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.08800000000000001</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Liquid Waste</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>frac_wali_ww_domestic_urban_treatment_path_untreated_no_sewerage</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.728936560475792</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.728936560475792</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.728936560475792</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.728936560475792</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.728936560475792</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.728936560475792</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.728936560475792</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.728936560475792</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.728936560475792</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.728936560475792</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.728936560475792</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.6997790980567603</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.6706216356377287</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.641464173218697</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.6123067107996653</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.5831492483806336</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.5539917859616019</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.5248343235425702</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.4956768611235385</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.4665193987045069</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.4373619362854752</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.4082044738664436</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.3790470114474119</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.3498895490283802</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.3207320866093484</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.2915746241903168</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.2624171617712851</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.2332596993522534</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.2041022369332218</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.1749447745141901</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.1457873120951584</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.1166298496761267</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.08747238725709504</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.05831492483806333</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.02915746241903171</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Liquid Waste</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>frac_wali_ww_domestic_urban_treatment_path_untreated_with_sewerage</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.271063439524208</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.271063439524208</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.271063439524208</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.271063439524208</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.271063439524208</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.271063439524208</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.271063439524208</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.271063439524208</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.271063439524208</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.271063439524208</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.271063439524208</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.2602209019432397</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.2493783643622714</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.2385358267813031</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.2276932892003347</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.2168507516193664</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.2060082140383981</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.1951656764574298</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.1843231388764614</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.1734806012954931</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.1626380637145248</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.1517955261335565</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.1409529885525882</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.1301104509716199</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.1192679133906515</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.1084253758096832</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.09758283822871489</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.08674030064774656</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.07589776306677826</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.06505522548580993</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.05421268790484159</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.04337015032387329</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.03252761274290496</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.02168507516193663</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.01084253758096833</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Liquid Waste</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>frac_wali_ww_industrial_treatment_path_advanced_anaerobic</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.3200000000000001</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.4480000000000001</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.6080000000000001</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.6400000000000001</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.7040000000000001</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.7360000000000001</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.768</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Liquid Waste</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>frac_wali_ww_industrial_treatment_path_secondary_aerobic</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.04000000000000001</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.05600000000000001</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.07600000000000001</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.08000000000000002</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.08800000000000001</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.09200000000000001</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Liquid Waste</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>frac_wali_ww_industrial_treatment_path_secondary_anaerobic</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.04000000000000001</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.05600000000000001</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.07600000000000001</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.08000000000000002</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.08800000000000001</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.09200000000000001</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Liquid Waste</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>frac_wali_ww_industrial_treatment_path_untreated_no_sewerage</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.728936560475792</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.728936560475792</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.728936560475792</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.728936560475792</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.728936560475792</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.728936560475792</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.728936560475792</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.728936560475792</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.728936560475792</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.728936560475792</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.728936560475792</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.6997790980567603</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.6706216356377287</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.641464173218697</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.6123067107996653</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.5831492483806336</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.5539917859616019</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.5248343235425702</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.4956768611235385</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.4665193987045069</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.4373619362854752</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.4082044738664436</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.3790470114474119</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.3498895490283802</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.3207320866093484</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.2915746241903168</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.2624171617712851</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.2332596993522534</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.2041022369332218</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.1749447745141901</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.1457873120951584</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.1166298496761267</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.08747238725709504</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.05831492483806333</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.02915746241903171</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Liquid Waste</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>frac_wali_ww_industrial_treatment_path_untreated_with_sewerage</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.271063439524208</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.271063439524208</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.271063439524208</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.271063439524208</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.271063439524208</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.271063439524208</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.271063439524208</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.271063439524208</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.271063439524208</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.271063439524208</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.271063439524208</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.2602209019432397</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.2493783643622714</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.2385358267813031</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.2276932892003347</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.2168507516193664</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.2060082140383981</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.1951656764574298</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.1843231388764614</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.1734806012954931</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.1626380637145248</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.1517955261335565</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.1409529885525882</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.1301104509716199</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.1192679133906515</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.1084253758096832</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.09758283822871489</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.08674030064774656</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.07589776306677826</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.06505522548580993</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.05421268790484159</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.04337015032387329</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.03252761274290496</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0.02168507516193663</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0.01084253758096833</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Solid Waste</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>factor_waso_waste_per_capita_scalar_food</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.9279999999999999</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.9159999999999999</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.9039999999999999</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.8680000000000001</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.8079999999999999</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.7959999999999999</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.7719999999999999</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Solid Waste</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>frac_waso_biogas_food</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.0382</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.0564</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.0746</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.09279999999999999</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.1292</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.1474</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.1656</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.1838</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.2202</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.2384</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.2748</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.3112</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.3294</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.3476</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.3658</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.4021999999999999</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.4204</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.4386</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.4568</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Solid Waste</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>frac_waso_biogas_sludge</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.4239999999999999</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.4330000000000001</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.439</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0.466</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Solid Waste</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>frac_waso_biogas_yard</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.0382</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.0564</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.0746</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.09279999999999999</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.1292</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.1474</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.1656</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.1838</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.2202</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.2384</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.2748</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.3112</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.3294</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.3476</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.3658</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.4021999999999999</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.4204</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.4386</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.4568</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Solid Waste</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>frac_waso_compost_food</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.03633379079088554</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.05461154950793197</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.07288930822497841</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.09116706694202484</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.1094448256590713</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.1277225843761177</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.1460003430931641</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.1642781018102106</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.182555860527257</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.2008336192443035</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.2191113779613499</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.2373891366783963</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.2556668953954427</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.2739446541124892</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.2922224128295356</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.310500171546582</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.3287779302636285</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.3470556889806749</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.3653334476977214</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.3836112064147678</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.4018889651318142</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.4201667238488607</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.4384444825659071</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.4567222412829535</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Solid Waste</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>frac_waso_compost_sludge</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.03633379079088554</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.05461154950793197</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.07288930822497841</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.09116706694202484</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.1094448256590713</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.1277225843761177</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.1460003430931641</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.1642781018102106</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.182555860527257</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.2008336192443035</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.2191113779613499</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.2373891366783963</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.2556668953954427</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.2739446541124892</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.2922224128295356</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.310500171546582</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.3287779302636285</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.3470556889806749</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.3653334476977214</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.3836112064147678</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.4018889651318142</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.4201667238488607</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.4384444825659071</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.4567222412829535</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Solid Waste</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>frac_waso_compost_yard</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.0180560320738391</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.03633379079088554</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.05461154950793197</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.07288930822497841</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.09116706694202484</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.1094448256590713</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.1277225843761177</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.1460003430931641</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.1642781018102106</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.182555860527257</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.2008336192443035</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.2191113779613499</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.2373891366783963</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.2556668953954427</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.2739446541124892</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.2922224128295356</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.310500171546582</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.3287779302636285</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.3470556889806749</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.3653334476977214</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.3836112064147678</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.4018889651318142</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.4201667238488607</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.4384444825659071</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.4567222412829535</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Solid Waste</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>frac_waso_isw_incinerated_recovered_for_energy</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.04725</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.04725</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.04725</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.04725</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.04725</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.04725</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.04725</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.04725</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.04725</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.04725</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.04725</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.07936</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.11147</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.14358</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.17569</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.2078</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.23991</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.27202</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.30413</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.33624</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.36835</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.40046</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.43257</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.46468</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0.49679</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0.5289</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0.56101</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0.5931200000000001</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0.62523</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0.65734</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0.68945</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0.72156</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0.75367</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0.78578</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0.8178899999999999</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Solid Waste</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>frac_waso_landfill_gas_recovered</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.4343199999999999</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.45164</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.46896</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.48628</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.5036</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.5209199999999999</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.5382399999999999</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.5555600000000001</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.5728800000000001</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.5902000000000001</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.6075200000000001</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.62484</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.64216</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0.6594800000000001</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0.6768000000000001</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0.6941200000000001</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0.7114400000000001</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0.72876</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0.74608</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0.7634000000000001</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0.78072</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0.79804</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0.81536</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0.83268</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Solid Waste</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>frac_waso_lgc_recovered_for_energy</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.584</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.626</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.6679999999999999</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.6819999999999999</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.696</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.738</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.8220000000000001</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Solid Waste</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>frac_waso_msw_incinerated_recovered_for_energy</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.04725</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.04725</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.04725</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.04725</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.04725</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.04725</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.04725</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.04725</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.04725</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.04725</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.04725</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.07936</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.11147</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.14358</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.17569</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.2078</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.23991</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.27202</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.30413</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.33624</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.36835</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.40046</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.43257</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.46468</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.49679</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.5289</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.56101</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.5931200000000001</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.62523</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.65734</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.68945</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.72156</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.75367</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.78578</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.8178899999999999</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Solid Waste</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>frac_waso_non_recycled_landfilled</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.258081130946006</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.258081130946006</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.258081130946006</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.258081130946006</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.258081130946006</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.258081130946006</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.258081130946006</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.258081130946006</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.258081130946006</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.258081130946006</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.258081130946006</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.2731788771063474</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.2882766232666887</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.3033743694270301</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.3184721155873714</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.3335698617477128</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.3486676079080542</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.3637653540683955</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.3788631002287369</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.3939608463890782</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.4090585925494196</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.424156338709761</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.4392540848701023</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.4543518310304437</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.4694495771907851</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.4845473233511264</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0.4996450695114678</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.5147428156718091</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0.5298405618321504</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.5449383079924919</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0.5600360541528332</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0.5751338003131745</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0.5902315464735159</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.6053292926338573</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0.6204270387941986</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0.63552478495454</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Solid Waste</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>frac_waso_non_recycled_open_dump</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.377443654008534</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.377443654008534</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.377443654008534</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.377443654008534</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.377443654008534</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.377443654008534</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.377443654008534</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.377443654008534</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.377443654008534</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.377443654008534</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.377443654008534</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.3623459078481926</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.3472481616878513</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.33215041552751</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.3170526693671686</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.3019549232068273</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.2868571770464859</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.2717594308861445</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.2566616847258031</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.2415639385654618</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.2264661924051204</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.2113684462447791</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.1962707000844377</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.1811729539240963</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.166075207763755</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.1509774616034136</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.1358797154430722</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.1207819692827309</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0.1056842231223895</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.09058647696204816</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0.07548873080170679</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.06039098464136546</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0.04529323848102408</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.03019549232068271</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0.01509774616034137</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Solid Waste</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>frac_waso_recycled_glass</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.2033059935895846</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.2344182438566853</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.2655304941237859</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.2966427443908866</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.3277549946579872</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.3588672449250878</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0.3899794951921885</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0.4210917454592891</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.4522039957263897</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.4833162459934904</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0.5144284962605911</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.5455407465276917</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0.5766529967947923</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0.6077652470618929</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0.6388774973289936</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0.6699897475960942</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0.7011019978631949</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0.7322142481302955</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0.7633264983973961</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0.7944387486644968</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0.8255509989315973</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0.8566632491986981</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0.8877754994657987</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0.9188877497328993</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Solid Waste</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>frac_waso_recycled_metal</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.2033059935895846</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.2344182438566853</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.2655304941237859</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.2966427443908866</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.3277549946579872</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.3588672449250878</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.3899794951921885</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.4210917454592891</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.4522039957263897</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.4833162459934904</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.5144284962605911</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.5455407465276917</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.5766529967947923</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0.6077652470618929</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0.6388774973289936</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0.6699897475960942</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.7011019978631949</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0.7322142481302955</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.7633264983973961</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0.7944387486644968</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.8255509989315973</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0.8566632491986981</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.8877754994657987</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0.9188877497328993</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Solid Waste</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>frac_waso_recycled_paper</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.2033059935895846</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.2344182438566853</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.2655304941237859</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.2966427443908866</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.3277549946579872</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.3588672449250878</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.3899794951921885</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0.4210917454592891</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.4522039957263897</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.4833162459934904</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.5144284962605911</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0.5455407465276917</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0.5766529967947923</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0.6077652470618929</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0.6388774973289936</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0.6699897475960942</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0.7011019978631949</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0.7322142481302955</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0.7633264983973961</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0.7944387486644968</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0.8255509989315973</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0.8566632491986981</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0.8877754994657987</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0.9188877497328993</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Solid Waste</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>frac_waso_recycled_plastic</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.2033059935895846</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.2344182438566853</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.2655304941237859</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.2966427443908866</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.3277549946579872</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.3588672449250878</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.3899794951921885</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.4210917454592891</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.4522039957263897</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.4833162459934904</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.5144284962605911</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.5455407465276917</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.5766529967947923</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0.6077652470618929</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.6388774973289936</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0.6699897475960942</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.7011019978631949</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0.7322142481302955</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0.7633264983973961</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0.7944387486644968</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0.8255509989315973</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0.8566632491986981</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.8877754994657987</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0.9188877497328993</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Solid Waste</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>frac_waso_recycled_rubber_leather</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.2033059935895846</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.2344182438566853</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.2655304941237859</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.2966427443908866</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.3277549946579872</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.3588672449250878</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.3899794951921885</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.4210917454592891</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.4522039957263897</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.4833162459934904</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.5144284962605911</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.5455407465276917</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.5766529967947923</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0.6077652470618929</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0.6388774973289936</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0.6699897475960942</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0.7011019978631949</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0.7322142481302955</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0.7633264983973961</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0.7944387486644968</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0.8255509989315973</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0.8566632491986981</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0.8877754994657987</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0.9188877497328993</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Solid Waste</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>frac_waso_recycled_textiles</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.2033059935895846</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.2344182438566853</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.2655304941237859</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.2966427443908866</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.3277549946579872</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.3588672449250878</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.3899794951921885</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0.4210917454592891</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.4522039957263897</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.4833162459934904</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.5144284962605911</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.5455407465276917</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0.5766529967947923</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0.6077652470618929</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0.6388774973289936</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0.6699897475960942</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0.7011019978631949</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0.7322142481302955</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0.7633264983973961</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0.7944387486644968</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0.8255509989315973</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>0.8566632491986981</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0.8877754994657987</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0.9188877497328993</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Solid Waste</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>frac_waso_recycled_wood</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.172193743322484</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.2033059935895846</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.2344182438566853</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.2655304941237859</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.2966427443908866</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.3277549946579872</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.3588672449250878</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.3899794951921885</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.4210917454592891</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.4522039957263897</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.4833162459934904</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.5144284962605911</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.5455407465276917</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.5766529967947923</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.6077652470618929</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.6388774973289936</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.6699897475960942</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.7011019978631949</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0.7322142481302955</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.7633264983973961</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0.7944387486644968</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.8255509989315973</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0.8566632491986981</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.8877754994657987</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0.9188877497328993</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Wastewater Treatment</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>gasrf_trww_biogas_treated_advanced_aerobic</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.5780000000000001</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Wastewater Treatment</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>gasrf_trww_biogas_treated_advanced_anaerobic</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0.5780000000000001</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Wastewater Treatment</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>gasrf_trww_biogas_treated_secondary_aerobic</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.5780000000000001</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Wastewater Treatment</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>gasrf_trww_biogas_treated_secondary_anaerobic</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.5780000000000001</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/ref/ingestion/calibrated/panama/model_input_variables_panama_ce_calibrated.xlsx
+++ b/ref/ingestion/calibrated/panama/model_input_variables_panama_ce_calibrated.xlsx
@@ -451,22 +451,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>variable_trajectory_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>normalize_group</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>trajgroup_no_vary_q</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>uniform_scaling_q</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>variable_trajectory_group</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -1128,7 +1128,9 @@
           <t>frac_wali_ww_domestic_rural_treatment_path_advanced_aerobic</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>53</v>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -1259,7 +1261,9 @@
           <t>frac_wali_ww_domestic_rural_treatment_path_advanced_anaerobic</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>53</v>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -1390,7 +1394,9 @@
           <t>frac_wali_ww_domestic_rural_treatment_path_latrine_improved</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>53</v>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -1521,7 +1527,9 @@
           <t>frac_wali_ww_domestic_rural_treatment_path_latrine_unimproved</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>53</v>
+      </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -1652,7 +1660,9 @@
           <t>frac_wali_ww_domestic_rural_treatment_path_primary</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>53</v>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -1783,7 +1793,9 @@
           <t>frac_wali_ww_domestic_rural_treatment_path_secondary_aerobic</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>53</v>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -1914,7 +1926,9 @@
           <t>frac_wali_ww_domestic_rural_treatment_path_secondary_anaerobic</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>53</v>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -2045,7 +2059,9 @@
           <t>frac_wali_ww_domestic_rural_treatment_path_septic</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>53</v>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -2176,7 +2192,9 @@
           <t>frac_wali_ww_domestic_rural_treatment_path_untreated_no_sewerage</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>53</v>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -2307,7 +2325,9 @@
           <t>frac_wali_ww_domestic_rural_treatment_path_untreated_with_sewerage</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>53</v>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -2438,7 +2458,9 @@
           <t>frac_wali_ww_domestic_urban_treatment_path_advanced_aerobic</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>54</v>
+      </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
@@ -2569,7 +2591,9 @@
           <t>frac_wali_ww_domestic_urban_treatment_path_advanced_anaerobic</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>54</v>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -2700,7 +2724,9 @@
           <t>frac_wali_ww_domestic_urban_treatment_path_latrine_improved</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>54</v>
+      </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
@@ -2831,7 +2857,9 @@
           <t>frac_wali_ww_domestic_urban_treatment_path_latrine_unimproved</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>54</v>
+      </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
@@ -2962,7 +2990,9 @@
           <t>frac_wali_ww_domestic_urban_treatment_path_primary</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>54</v>
+      </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
@@ -3093,7 +3123,9 @@
           <t>frac_wali_ww_domestic_urban_treatment_path_secondary_aerobic</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>54</v>
+      </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
@@ -3224,7 +3256,9 @@
           <t>frac_wali_ww_domestic_urban_treatment_path_secondary_anaerobic</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>54</v>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
@@ -3355,7 +3389,9 @@
           <t>frac_wali_ww_domestic_urban_treatment_path_septic</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>54</v>
+      </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
@@ -3486,7 +3522,9 @@
           <t>frac_wali_ww_domestic_urban_treatment_path_untreated_no_sewerage</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>54</v>
+      </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
@@ -3617,7 +3655,9 @@
           <t>frac_wali_ww_domestic_urban_treatment_path_untreated_with_sewerage</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>54</v>
+      </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
@@ -3748,7 +3788,9 @@
           <t>frac_wali_ww_industrial_treatment_path_advanced_aerobic</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>55</v>
+      </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
@@ -3879,7 +3921,9 @@
           <t>frac_wali_ww_industrial_treatment_path_advanced_anaerobic</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>55</v>
+      </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -4010,7 +4054,9 @@
           <t>frac_wali_ww_industrial_treatment_path_latrine_improved</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>55</v>
+      </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -4141,7 +4187,9 @@
           <t>frac_wali_ww_industrial_treatment_path_latrine_unimproved</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>55</v>
+      </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
@@ -4272,7 +4320,9 @@
           <t>frac_wali_ww_industrial_treatment_path_primary</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="n">
+        <v>55</v>
+      </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
@@ -4403,7 +4453,9 @@
           <t>frac_wali_ww_industrial_treatment_path_secondary_aerobic</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>55</v>
+      </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
@@ -4534,7 +4586,9 @@
           <t>frac_wali_ww_industrial_treatment_path_secondary_anaerobic</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>55</v>
+      </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
@@ -4665,7 +4719,9 @@
           <t>frac_wali_ww_industrial_treatment_path_septic</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>55</v>
+      </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
@@ -4796,7 +4852,9 @@
           <t>frac_wali_ww_industrial_treatment_path_untreated_no_sewerage</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="n">
+        <v>55</v>
+      </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
@@ -4927,7 +4985,9 @@
           <t>frac_wali_ww_industrial_treatment_path_untreated_with_sewerage</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>55</v>
+      </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
@@ -14359,7 +14419,9 @@
           <t>frac_waso_initial_composition_ind_chemical_industrial</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr"/>
+      <c r="C107" t="n">
+        <v>56</v>
+      </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
@@ -14490,7 +14552,9 @@
           <t>frac_waso_initial_composition_ind_food</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr"/>
+      <c r="C108" t="n">
+        <v>56</v>
+      </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
@@ -14621,7 +14685,9 @@
           <t>frac_waso_initial_composition_ind_glass</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr"/>
+      <c r="C109" t="n">
+        <v>56</v>
+      </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
@@ -14752,7 +14818,9 @@
           <t>frac_waso_initial_composition_ind_metal</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr"/>
+      <c r="C110" t="n">
+        <v>56</v>
+      </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
@@ -14883,7 +14951,9 @@
           <t>frac_waso_initial_composition_ind_nappies</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr"/>
+      <c r="C111" t="n">
+        <v>56</v>
+      </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
@@ -15014,7 +15084,9 @@
           <t>frac_waso_initial_composition_ind_other</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr"/>
+      <c r="C112" t="n">
+        <v>56</v>
+      </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
@@ -15145,7 +15217,9 @@
           <t>frac_waso_initial_composition_ind_paper</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr"/>
+      <c r="C113" t="n">
+        <v>56</v>
+      </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
@@ -15276,7 +15350,9 @@
           <t>frac_waso_initial_composition_ind_plastic</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr"/>
+      <c r="C114" t="n">
+        <v>56</v>
+      </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
@@ -15407,7 +15483,9 @@
           <t>frac_waso_initial_composition_ind_rubber_leather</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr"/>
+      <c r="C115" t="n">
+        <v>56</v>
+      </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
@@ -15538,7 +15616,9 @@
           <t>frac_waso_initial_composition_ind_sludge</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr"/>
+      <c r="C116" t="n">
+        <v>56</v>
+      </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
@@ -15669,7 +15749,9 @@
           <t>frac_waso_initial_composition_ind_textiles</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>56</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -15800,7 +15882,9 @@
           <t>frac_waso_initial_composition_ind_wood</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr"/>
+      <c r="C118" t="n">
+        <v>56</v>
+      </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
@@ -15931,7 +16015,9 @@
           <t>frac_waso_initial_composition_ind_yard</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr"/>
+      <c r="C119" t="n">
+        <v>56</v>
+      </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
@@ -16062,7 +16148,9 @@
           <t>frac_waso_initial_composition_mun_chemical_industrial</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr"/>
+      <c r="C120" t="n">
+        <v>57</v>
+      </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
@@ -16193,7 +16281,9 @@
           <t>frac_waso_initial_composition_mun_food</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr"/>
+      <c r="C121" t="n">
+        <v>57</v>
+      </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
@@ -16324,7 +16414,9 @@
           <t>frac_waso_initial_composition_mun_glass</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr"/>
+      <c r="C122" t="n">
+        <v>57</v>
+      </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
@@ -16455,7 +16547,9 @@
           <t>frac_waso_initial_composition_mun_metal</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr"/>
+      <c r="C123" t="n">
+        <v>57</v>
+      </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
@@ -16586,7 +16680,9 @@
           <t>frac_waso_initial_composition_mun_nappies</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr"/>
+      <c r="C124" t="n">
+        <v>57</v>
+      </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
@@ -16717,7 +16813,9 @@
           <t>frac_waso_initial_composition_mun_other</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr"/>
+      <c r="C125" t="n">
+        <v>57</v>
+      </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
@@ -16848,7 +16946,9 @@
           <t>frac_waso_initial_composition_mun_paper</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr"/>
+      <c r="C126" t="n">
+        <v>57</v>
+      </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
@@ -16979,7 +17079,9 @@
           <t>frac_waso_initial_composition_mun_plastic</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr"/>
+      <c r="C127" t="n">
+        <v>57</v>
+      </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
@@ -17110,7 +17212,9 @@
           <t>frac_waso_initial_composition_mun_rubber_leather</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr"/>
+      <c r="C128" t="n">
+        <v>57</v>
+      </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
@@ -17241,7 +17345,9 @@
           <t>frac_waso_initial_composition_mun_sludge</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr"/>
+      <c r="C129" t="n">
+        <v>57</v>
+      </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
@@ -17372,7 +17478,9 @@
           <t>frac_waso_initial_composition_mun_textiles</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr"/>
+      <c r="C130" t="n">
+        <v>57</v>
+      </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
@@ -17503,7 +17611,9 @@
           <t>frac_waso_initial_composition_mun_wood</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr"/>
+      <c r="C131" t="n">
+        <v>57</v>
+      </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
@@ -17634,7 +17744,9 @@
           <t>frac_waso_initial_composition_mun_yard</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr"/>
+      <c r="C132" t="n">
+        <v>57</v>
+      </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
@@ -18289,7 +18401,9 @@
           <t>frac_waso_non_recycled_incinerated</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr"/>
+      <c r="C137" t="n">
+        <v>58</v>
+      </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
@@ -18420,7 +18534,9 @@
           <t>frac_waso_non_recycled_landfilled</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr"/>
+      <c r="C138" t="n">
+        <v>58</v>
+      </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
@@ -18551,7 +18667,9 @@
           <t>frac_waso_non_recycled_open_dump</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr"/>
+      <c r="C139" t="n">
+        <v>58</v>
+      </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
@@ -30100,22 +30218,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>variable_trajectory_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>normalize_group</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>trajgroup_no_vary_q</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>uniform_scaling_q</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>variable_trajectory_group</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -30253,7 +30371,9 @@
           <t>frac_wali_ww_domestic_rural_treatment_path_septic</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>53</v>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -30384,7 +30504,9 @@
           <t>frac_wali_ww_domestic_rural_treatment_path_untreated_no_sewerage</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>53</v>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -30515,7 +30637,9 @@
           <t>frac_wali_ww_domestic_rural_treatment_path_untreated_with_sewerage</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>53</v>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -30646,7 +30770,9 @@
           <t>frac_wali_ww_domestic_urban_treatment_path_advanced_aerobic</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>54</v>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -30777,7 +30903,9 @@
           <t>frac_wali_ww_domestic_urban_treatment_path_advanced_anaerobic</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>54</v>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -30908,7 +31036,9 @@
           <t>frac_wali_ww_domestic_urban_treatment_path_secondary_aerobic</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>54</v>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -31039,7 +31169,9 @@
           <t>frac_wali_ww_domestic_urban_treatment_path_secondary_anaerobic</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>54</v>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -31170,7 +31302,9 @@
           <t>frac_wali_ww_domestic_urban_treatment_path_untreated_no_sewerage</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>54</v>
+      </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -31301,7 +31435,9 @@
           <t>frac_wali_ww_domestic_urban_treatment_path_untreated_with_sewerage</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>54</v>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -31432,7 +31568,9 @@
           <t>frac_wali_ww_industrial_treatment_path_advanced_anaerobic</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>55</v>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -31563,7 +31701,9 @@
           <t>frac_wali_ww_industrial_treatment_path_secondary_aerobic</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>55</v>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -31694,7 +31834,9 @@
           <t>frac_wali_ww_industrial_treatment_path_secondary_anaerobic</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>55</v>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -31825,7 +31967,9 @@
           <t>frac_wali_ww_industrial_treatment_path_untreated_no_sewerage</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>55</v>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -31956,7 +32100,9 @@
           <t>frac_wali_ww_industrial_treatment_path_untreated_with_sewerage</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>55</v>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -32087,7 +32233,9 @@
           <t>frac_waso_non_recycled_landfilled</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>58</v>
+      </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
@@ -32218,7 +32366,9 @@
           <t>frac_waso_non_recycled_open_dump</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>58</v>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -33287,22 +33437,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>variable_trajectory_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>normalize_group</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>trajgroup_no_vary_q</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>uniform_scaling_q</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>variable_trajectory_group</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -34378,22 +34528,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>variable_trajectory_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>normalize_group</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>trajgroup_no_vary_q</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>uniform_scaling_q</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>variable_trajectory_group</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -35600,22 +35750,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>variable_trajectory_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>normalize_group</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>trajgroup_no_vary_q</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>uniform_scaling_q</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>variable_trajectory_group</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -35753,7 +35903,9 @@
           <t>frac_wali_ww_domestic_rural_treatment_path_septic</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>53</v>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -35884,7 +36036,9 @@
           <t>frac_wali_ww_domestic_rural_treatment_path_untreated_no_sewerage</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>53</v>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -36015,7 +36169,9 @@
           <t>frac_wali_ww_domestic_rural_treatment_path_untreated_with_sewerage</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>53</v>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -36146,7 +36302,9 @@
           <t>frac_wali_ww_domestic_urban_treatment_path_advanced_aerobic</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>54</v>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -36277,7 +36435,9 @@
           <t>frac_wali_ww_domestic_urban_treatment_path_advanced_anaerobic</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>54</v>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -36408,7 +36568,9 @@
           <t>frac_wali_ww_domestic_urban_treatment_path_secondary_aerobic</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>54</v>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -36539,7 +36701,9 @@
           <t>frac_wali_ww_domestic_urban_treatment_path_secondary_anaerobic</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>54</v>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -36670,7 +36834,9 @@
           <t>frac_wali_ww_domestic_urban_treatment_path_untreated_no_sewerage</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>54</v>
+      </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -36801,7 +36967,9 @@
           <t>frac_wali_ww_domestic_urban_treatment_path_untreated_with_sewerage</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>54</v>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -36932,7 +37100,9 @@
           <t>frac_wali_ww_industrial_treatment_path_advanced_anaerobic</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>55</v>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -37063,7 +37233,9 @@
           <t>frac_wali_ww_industrial_treatment_path_secondary_aerobic</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>55</v>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -37194,7 +37366,9 @@
           <t>frac_wali_ww_industrial_treatment_path_secondary_anaerobic</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>55</v>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -37325,7 +37499,9 @@
           <t>frac_wali_ww_industrial_treatment_path_untreated_no_sewerage</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>55</v>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -37456,7 +37632,9 @@
           <t>frac_wali_ww_industrial_treatment_path_untreated_with_sewerage</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>55</v>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -39028,7 +39206,9 @@
           <t>frac_waso_non_recycled_landfilled</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>58</v>
+      </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -39159,7 +39339,9 @@
           <t>frac_waso_non_recycled_open_dump</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>58</v>
+      </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -40752,22 +40934,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>variable_trajectory_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>normalize_group</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>trajgroup_no_vary_q</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>uniform_scaling_q</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>variable_trajectory_group</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -40905,7 +41087,9 @@
           <t>frac_wali_ww_domestic_rural_treatment_path_septic</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>53</v>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -41036,7 +41220,9 @@
           <t>frac_wali_ww_domestic_rural_treatment_path_untreated_no_sewerage</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>53</v>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -41167,7 +41353,9 @@
           <t>frac_wali_ww_domestic_rural_treatment_path_untreated_with_sewerage</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>53</v>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -41298,7 +41486,9 @@
           <t>frac_wali_ww_domestic_urban_treatment_path_advanced_aerobic</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>54</v>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -41429,7 +41619,9 @@
           <t>frac_wali_ww_domestic_urban_treatment_path_advanced_anaerobic</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>54</v>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -41560,7 +41752,9 @@
           <t>frac_wali_ww_domestic_urban_treatment_path_secondary_aerobic</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>54</v>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -41691,7 +41885,9 @@
           <t>frac_wali_ww_domestic_urban_treatment_path_secondary_anaerobic</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>54</v>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -41822,7 +42018,9 @@
           <t>frac_wali_ww_domestic_urban_treatment_path_untreated_no_sewerage</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>54</v>
+      </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -41953,7 +42151,9 @@
           <t>frac_wali_ww_domestic_urban_treatment_path_untreated_with_sewerage</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>54</v>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -42084,7 +42284,9 @@
           <t>frac_wali_ww_industrial_treatment_path_advanced_anaerobic</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>55</v>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -42215,7 +42417,9 @@
           <t>frac_wali_ww_industrial_treatment_path_secondary_aerobic</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>55</v>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -42346,7 +42550,9 @@
           <t>frac_wali_ww_industrial_treatment_path_secondary_anaerobic</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>55</v>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -42477,7 +42683,9 @@
           <t>frac_wali_ww_industrial_treatment_path_untreated_no_sewerage</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>55</v>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -42608,7 +42816,9 @@
           <t>frac_wali_ww_industrial_treatment_path_untreated_with_sewerage</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>55</v>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -44180,7 +44390,9 @@
           <t>frac_waso_non_recycled_landfilled</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>58</v>
+      </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -44311,7 +44523,9 @@
           <t>frac_waso_non_recycled_open_dump</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>58</v>
+      </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>

--- a/ref/ingestion/calibrated/panama/model_input_variables_panama_ce_calibrated.xlsx
+++ b/ref/ingestion/calibrated/panama/model_input_variables_panama_ce_calibrated.xlsx
@@ -14434,7 +14434,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
@@ -14700,7 +14700,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
@@ -14833,7 +14833,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
@@ -14966,7 +14966,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
@@ -15099,7 +15099,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
@@ -15365,7 +15365,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
@@ -15498,7 +15498,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
@@ -15764,7 +15764,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -15897,7 +15897,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
@@ -16030,7 +16030,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
@@ -16163,7 +16163,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
@@ -16429,7 +16429,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
@@ -16562,7 +16562,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
@@ -16695,7 +16695,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
@@ -16828,7 +16828,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
@@ -16961,7 +16961,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
@@ -17094,7 +17094,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
@@ -17360,7 +17360,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
@@ -17493,7 +17493,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
@@ -17626,7 +17626,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
@@ -17759,7 +17759,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
